--- a/manifest_templates/tools_manifest.xlsx
+++ b/manifest_templates/tools_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6BAD7-DDAB-CE49-BA50-0B4774FB83D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D79682-8994-404B-A23D-06A3A26A6BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="460" windowWidth="24640" windowHeight="17540" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
+    <workbookView xWindow="4020" yWindow="500" windowWidth="24640" windowHeight="17500" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="64">
   <si>
     <t>description</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>NetLogo</t>
+  </si>
+  <si>
+    <t>Must use controlled-vocabulary terms</t>
   </si>
 </sst>
 </file>
@@ -263,12 +266,18 @@
       <name val="SF Mono Regular"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -283,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +307,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,16 +648,16 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -747,7 +757,9 @@
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="14">
       <c r="A5" s="6" t="s">
@@ -756,7 +768,9 @@
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="14">
       <c r="A6" s="6" t="s">
@@ -765,7 +779,9 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="14">
       <c r="A7" s="6" t="s">
@@ -774,7 +790,9 @@
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="14">
       <c r="A8" s="6" t="s">

--- a/manifest_templates/tools_manifest.xlsx
+++ b/manifest_templates/tools_manifest.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Desktop/csbc-pson-dcc/manifest_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D79682-8994-404B-A23D-06A3A26A6BE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A582B2A-8608-5A43-843F-CD17EA12DA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="500" windowWidth="24640" windowHeight="17500" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
+    <workbookView xWindow="60" yWindow="2380" windowWidth="26280" windowHeight="17500" xr2:uid="{CD4E31F0-ADA2-D447-8E73-A4C2A56D4DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
-    <sheet name="column_descriptions" sheetId="2" r:id="rId2"/>
-    <sheet name="standard_terms" sheetId="3" r:id="rId3"/>
+    <sheet name="standard_terms" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">standard_terms!$A$1:$C$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">standard_terms!$A$1:$C$421</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="74">
   <si>
     <t>description</t>
   </si>
@@ -49,24 +48,12 @@
     <t>publicationTitle</t>
   </si>
   <si>
-    <t>column_name</t>
-  </si>
-  <si>
-    <t>e.g. CA184897</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>This is a key that should be included in the publicationTitle field of a publication</t>
-  </si>
-  <si>
     <t>columnType</t>
   </si>
   <si>
@@ -85,33 +72,6 @@
     <t>outputDataType</t>
   </si>
   <si>
-    <t>name of the tool</t>
-  </si>
-  <si>
-    <t>This is a key that should occur in the tool field of a publication (if there is an associated publication).</t>
-  </si>
-  <si>
-    <t>short (~1 paragraph) description of tool</t>
-  </si>
-  <si>
-    <t>title of publication that developed this tool, if applicable</t>
-  </si>
-  <si>
-    <t>URL to external tool (e.g. github or lab homepage), if applicable</t>
-  </si>
-  <si>
-    <t>type of tool, e.g. script, package library</t>
-  </si>
-  <si>
-    <t>language the tool is implemented in</t>
-  </si>
-  <si>
-    <t>tool's input data type</t>
-  </si>
-  <si>
-    <t>tool's output data type</t>
-  </si>
-  <si>
     <t>package library</t>
   </si>
   <si>
@@ -208,12 +168,6 @@
     <t>RNA</t>
   </si>
   <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>externalLink</t>
-  </si>
-  <si>
     <t>clinical records</t>
   </si>
   <si>
@@ -229,7 +183,82 @@
     <t>NetLogo</t>
   </si>
   <si>
-    <t>Must use controlled-vocabulary terms</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>inputData</t>
+  </si>
+  <si>
+    <t>outputData</t>
+  </si>
+  <si>
+    <t>inputFormat</t>
+  </si>
+  <si>
+    <t>outputFormat</t>
+  </si>
+  <si>
+    <t>functionNote</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>operatingSystem</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>downloadUrl</t>
+  </si>
+  <si>
+    <t>downloadType</t>
+  </si>
+  <si>
+    <t>downloadNote</t>
+  </si>
+  <si>
+    <t>downloadVersion</t>
+  </si>
+  <si>
+    <t>documentationUrl</t>
+  </si>
+  <si>
+    <t>documentationType</t>
+  </si>
+  <si>
+    <t>documentationNote</t>
+  </si>
+  <si>
+    <t>linkUrl</t>
+  </si>
+  <si>
+    <t>linkType</t>
+  </si>
+  <si>
+    <t>linkNote</t>
   </si>
 </sst>
 </file>
@@ -292,22 +321,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F315EE4B-8495-DC46-A730-A45AD620AD5D}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -637,199 +658,108 @@
     <col min="4" max="5" width="29.1640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="8" max="30" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{208730FA-B260-FC48-BC87-C6E59180E275}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$40:$B$57</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{5BC57D0B-D300-3346-919B-EB594AF53DBE}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$22:$B$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{50D64434-2F4B-7849-81C6-4C0F4EC724F1}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{1B0EE8E8-E7B4-224D-97BB-851144F34289}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$9:$B$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F424B9EB-732F-B548-908D-2FCF6390E552}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="42">
-      <c r="A2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="14">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14">
-      <c r="A8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="28">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28">
-      <c r="A10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22616EE1-2275-CB41-A986-1AA97511F3EE}">
   <dimension ref="A1:C164"/>
   <sheetViews>
@@ -844,627 +774,627 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>61</v>
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>62</v>
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3">
